--- a/totalA 100FINAL.xlsx
+++ b/totalA 100FINAL.xlsx
@@ -540,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>86.54000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>89.53</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>89.53</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>341.54</v>
       </c>
       <c r="P3">
-        <v>18792</v>
+        <v>18701</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -590,13 +590,13 @@
         <v>106.76</v>
       </c>
       <c r="E4">
-        <v>29.43</v>
+        <v>91.61</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>85</v>
+        <v>9.52</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>391.19</v>
       </c>
       <c r="P4">
-        <v>20703</v>
+        <v>20570</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -640,13 +640,13 @@
         <v>102.21</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>87.13</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.39</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>87.12</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>284.6</v>
       </c>
       <c r="P5">
-        <v>14353</v>
+        <v>14311</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -690,13 +690,13 @@
         <v>107.25</v>
       </c>
       <c r="E6">
-        <v>37.54</v>
+        <v>92.14</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>85</v>
+        <v>16.1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85</v>
+        <v>92.14</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>399.79</v>
       </c>
       <c r="P6">
-        <v>21214</v>
+        <v>21071</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -740,13 +740,13 @@
         <v>104.56</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>35.08</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>89.47</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>43.96</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>89.41</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>318.52</v>
       </c>
       <c r="P7">
-        <v>16365</v>
+        <v>16276</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -790,13 +790,13 @@
         <v>105.44</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>51.24</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>61.86</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>90.28</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>337.31</v>
       </c>
       <c r="P8">
-        <v>17484</v>
+        <v>17377</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -840,13 +840,13 @@
         <v>106.82</v>
       </c>
       <c r="E9">
-        <v>33.67</v>
+        <v>91.72</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>91.72</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85</v>
+        <v>13.55</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>395.49</v>
       </c>
       <c r="P9">
-        <v>20961</v>
+        <v>20827</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -890,13 +890,13 @@
         <v>107.2</v>
       </c>
       <c r="E10">
-        <v>37.48</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>92.09</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>85</v>
+        <v>16.21</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>92.08</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>399.69</v>
       </c>
       <c r="P10">
-        <v>21209</v>
+        <v>21067</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -940,13 +940,13 @@
         <v>105.42</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>71.58</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>85</v>
+        <v>90.33</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>81.45999999999999</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>89.55</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>356.89</v>
       </c>
       <c r="P11">
-        <v>18658</v>
+        <v>18560</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>85</v>
+        <v>90.83</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>85</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>85</v>
+        <v>90.81999999999999</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>346.51</v>
       </c>
       <c r="P15">
-        <v>19111</v>
+        <v>18973</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1104,13 +1104,13 @@
         <v>108.24</v>
       </c>
       <c r="E16">
-        <v>33.46</v>
+        <v>93.11</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>85</v>
+        <v>93.13</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>85</v>
+        <v>9.1</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>85</v>
+        <v>93.13</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>396.71</v>
       </c>
       <c r="P16">
-        <v>21019</v>
+        <v>20857</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1154,13 +1154,13 @@
         <v>103.39</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>10.78</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>85</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>85</v>
+        <v>88.3</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>290.79</v>
       </c>
       <c r="P17">
-        <v>14713</v>
+        <v>14647</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1204,13 +1204,13 @@
         <v>108.65</v>
       </c>
       <c r="E18">
-        <v>38.36</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>85</v>
+        <v>93.56</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>85</v>
+        <v>12.73</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>85</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>402.01</v>
       </c>
       <c r="P18">
-        <v>21334</v>
+        <v>21163</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1254,13 +1254,13 @@
         <v>106.54</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>44.25</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>85</v>
+        <v>91.45</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>57.09</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>85</v>
+        <v>91.39</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>333.62</v>
       </c>
       <c r="P19">
-        <v>17252</v>
+        <v>17123</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1304,13 +1304,13 @@
         <v>107.7</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>85</v>
+        <v>92.61</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>80.91</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>85</v>
+        <v>92.54000000000001</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>358.61</v>
       </c>
       <c r="P20">
-        <v>18739</v>
+        <v>18588</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1354,13 +1354,13 @@
         <v>108.89</v>
       </c>
       <c r="E21">
-        <v>45.02</v>
+        <v>93.78</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>85</v>
+        <v>93.78</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>85</v>
+        <v>18.65</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>85</v>
+        <v>93.81</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>408.91</v>
       </c>
       <c r="P21">
-        <v>21745</v>
+        <v>21569</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1404,13 +1404,13 @@
         <v>108.72</v>
       </c>
       <c r="E22">
-        <v>39.63</v>
+        <v>93.61</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85</v>
+        <v>93.62</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>85</v>
+        <v>13.78</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>85</v>
+        <v>93.62</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>403.35</v>
       </c>
       <c r="P22">
-        <v>21413</v>
+        <v>21241</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1454,13 +1454,13 @@
         <v>107.03</v>
       </c>
       <c r="E23">
-        <v>3.32</v>
+        <v>75.08</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85</v>
+        <v>91.94</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>85</v>
+        <v>91.31</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>365.35</v>
       </c>
       <c r="P23">
-        <v>19150</v>
+        <v>19018</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1574,16 +1574,16 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>85</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>85</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>85</v>
+        <v>92.38</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>348.66</v>
       </c>
       <c r="P27">
-        <v>19258</v>
+        <v>19071</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -1618,13 +1618,13 @@
         <v>110.04</v>
       </c>
       <c r="E28">
-        <v>33.96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>85</v>
+        <v>94.92</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>85</v>
+        <v>4.24</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>85</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>399</v>
       </c>
       <c r="P28">
-        <v>21139</v>
+        <v>20941</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -1668,13 +1668,13 @@
         <v>104.81</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>10.61</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>85</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>20.06</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>85</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>294.87</v>
       </c>
       <c r="P29">
-        <v>14944</v>
+        <v>14849</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -1718,13 +1718,13 @@
         <v>110.27</v>
       </c>
       <c r="E30">
-        <v>37.93</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>85</v>
+        <v>95.17</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>85</v>
+        <v>7.46</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>85</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>403.21</v>
       </c>
       <c r="P30">
-        <v>21389</v>
+        <v>21186</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -1818,13 +1818,13 @@
         <v>109.77</v>
       </c>
       <c r="E32">
-        <v>2.47</v>
+        <v>68.19</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>85</v>
+        <v>94.68000000000001</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>85</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>367.24</v>
       </c>
       <c r="P32">
-        <v>19236</v>
+        <v>19043</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1868,13 +1868,13 @@
         <v>110.06</v>
       </c>
       <c r="E33">
-        <v>35.36</v>
+        <v>94.94</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>85</v>
+        <v>94.97</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>85</v>
+        <v>5.52</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>85</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>400.42</v>
       </c>
       <c r="P33">
-        <v>21224</v>
+        <v>21025</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1918,13 +1918,13 @@
         <v>110.44</v>
       </c>
       <c r="E34">
-        <v>40.97</v>
+        <v>95.31999999999999</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>85</v>
+        <v>95.33</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>85</v>
+        <v>9.98</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>85</v>
+        <v>95.34</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         <v>406.41</v>
       </c>
       <c r="P34">
-        <v>21580</v>
+        <v>21373</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -1968,13 +1968,13 @@
         <v>108.95</v>
       </c>
       <c r="E35">
-        <v>11.93</v>
+        <v>79.69</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>85</v>
+        <v>93.87</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>85</v>
+        <v>93.37</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>375.88</v>
       </c>
       <c r="P35">
-        <v>19763</v>
+        <v>19590</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2009,7 +2009,7 @@
         <v>27</v>
       </c>
       <c r="P37">
-        <v>15700</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2025,7 +2025,7 @@
         <v>29</v>
       </c>
       <c r="P39">
-        <v>502779.6903829502</v>
+        <v>499050.370742659</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2038,7 +2038,7 @@
         <v>31</v>
       </c>
       <c r="P41">
-        <v>518479</v>
+        <v>514250</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2046,7 +2046,7 @@
         <v>32</v>
       </c>
       <c r="P43">
-        <v>0.1007</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2075,7 +2075,7 @@
         <v>-0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="J45">
         <v>1</v>
